--- a/simulations/raw_inclusion_exclusion/Brouwer_2019 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Brouwer_2019 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.8859998950516871</v>
+        <v>0.8901191163352049</v>
       </c>
       <c r="I3">
-        <v>0.0119276507868689</v>
+        <v>0.008220923490096744</v>
       </c>
       <c r="J3">
         <v>0.9032258064516129</v>
       </c>
       <c r="K3">
-        <v>485.3709677419355</v>
+        <v>344.3225806451613</v>
       </c>
       <c r="L3">
         <v>6</v>
@@ -755,34 +755,34 @@
         <v>55</v>
       </c>
       <c r="Q3">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="S3">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="T3">
-        <v>402</v>
+        <v>223</v>
       </c>
       <c r="U3">
-        <v>840</v>
+        <v>597</v>
       </c>
       <c r="V3">
-        <v>37888</v>
+        <v>38044</v>
       </c>
       <c r="W3">
-        <v>37875</v>
+        <v>38021</v>
       </c>
       <c r="X3">
-        <v>37802</v>
+        <v>37959</v>
       </c>
       <c r="Y3">
-        <v>37650</v>
+        <v>37829</v>
       </c>
       <c r="Z3">
-        <v>37212</v>
+        <v>37455</v>
       </c>
       <c r="AA3">
         <v>56</v>
@@ -800,19 +800,19 @@
         <v>7</v>
       </c>
       <c r="AF3">
-        <v>0.99569</v>
+        <v>0.99979</v>
       </c>
       <c r="AG3">
-        <v>0.995348</v>
+        <v>0.999185</v>
       </c>
       <c r="AH3">
-        <v>0.99343</v>
+        <v>0.997556</v>
       </c>
       <c r="AI3">
-        <v>0.989436</v>
+        <v>0.99414</v>
       </c>
       <c r="AJ3">
-        <v>0.977925</v>
+        <v>0.984311</v>
       </c>
     </row>
   </sheetData>
